--- a/UI/bin/Debug/Excel/StockRecord.xlsx
+++ b/UI/bin/Debug/Excel/StockRecord.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>零件号</t>
   </si>
@@ -29,12 +29,6 @@
     <t>零件名</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>#REPEAT AREA 1 9 VAR i IN range(item.length)</t>
-  </si>
-  <si>
     <t>@item[i].materialNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -55,10 +49,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>实际数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -71,10 +61,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>@item[i].realAmount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>@item[i].unit</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -83,10 +69,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>@item[i].comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>@(item[i].storageLocationNo)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -111,8 +93,80 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>供应商名称 @var item=StockRecord;""#SET TABLE COLUMNS 10//初始化代码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>供货序号</t>
+  </si>
+  <si>
+    <t>@item[i].supplySerialNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].availablelAmount</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@item[i].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>batchNo</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货日期</t>
+  </si>
+  <si>
+    <t>@item[i].inventaryDate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].manufactureDate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].warehouseName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测状态</t>
+  </si>
+  <si>
+    <t>#REPEAT AREA 1 15 VAR i IN range(item.length)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称 @var item=StockRecord;""#SET TABLE COLUMNS 16//初始化代码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item.state==0?'待检测':item.state;@item.state==1?'不合格':item.state;@item.state==2?'合格':item.state;</t>
+  </si>
+  <si>
+    <t>@item[i].state==0?'待检测':'';@item[i].state==1?'不合格':'';@item[i].state==2?'合格':'';</t>
   </si>
 </sst>
 </file>
@@ -189,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,6 +266,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -221,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +301,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -545,114 +614,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="71.375" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="71.375" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="48.125" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+    <col min="11" max="11" width="22.25" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" ht="18">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:18" ht="14.25">
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25">
+    <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="H4" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
